--- a/Python_Notes_211130.xlsx
+++ b/Python_Notes_211130.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrblock-my.sharepoint.com/personal/jessica_bohning_hrblock_com/Documents/Desktop/Desktop_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ECEED178-4103-46FB-BD3D-E617A7132E29}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2C8009-0947-429F-8771-1DD008C3316F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3BC65D4-A1B2-4C17-818D-AB56E2F2C69D}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
     <sheet name="Examples" sheetId="4" r:id="rId3"/>
+    <sheet name="git" sheetId="5" r:id="rId4"/>
+    <sheet name="md" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
   <si>
     <t>R Equivalent</t>
   </si>
@@ -1336,12 +1338,228 @@
   <si>
     <t>Alternatives to 'for' loop. Note that the output of map() is a map object and you need list() to convert it to a list</t>
   </si>
+  <si>
+    <t>getwd()</t>
+  </si>
+  <si>
+    <t>os.getcwd()</t>
+  </si>
+  <si>
+    <t>Shows current working directory</t>
+  </si>
+  <si>
+    <t>import os
+os.getcwd()</t>
+  </si>
+  <si>
+    <t>git code</t>
+  </si>
+  <si>
+    <t>git checkout -b new_branch_name</t>
+  </si>
+  <si>
+    <t>creates a new branch in the repo</t>
+  </si>
+  <si>
+    <t>What it Does</t>
+  </si>
+  <si>
+    <t>git pull origin master</t>
+  </si>
+  <si>
+    <t>pulls the master branch</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>Exits the git log</t>
+  </si>
+  <si>
+    <t>Checks the git log</t>
+  </si>
+  <si>
+    <t>You have a problem with the ssl ceritficate at work and need to reference your certifcate when installing new packages:
+pip --cert C:\Users\a982526\JB_Apps\certificates\hrblock_root_certificate.cer install &lt;PACKAGE NAME&gt;</t>
+  </si>
+  <si>
+    <t>dim()</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>Shows dimensions of data frame</t>
+  </si>
+  <si>
+    <t>df.shape</t>
+  </si>
+  <si>
+    <t>dim(df)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Python and R syntax equivalents:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://towardsdatascience.com/cheat-sheet-for-python-dataframe-r-dataframe-syntax-conversions-450f656b44ca</t>
+    </r>
+  </si>
+  <si>
+    <t>name()</t>
+  </si>
+  <si>
+    <t>list(df.columns)</t>
+  </si>
+  <si>
+    <t>Gives the names of the data frame</t>
+  </si>
+  <si>
+    <t>names(df)</t>
+  </si>
+  <si>
+    <t>select()</t>
+  </si>
+  <si>
+    <t>Select column</t>
+  </si>
+  <si>
+    <t>df['A'] or df.A</t>
+  </si>
+  <si>
+    <t>df[df$A]</t>
+  </si>
+  <si>
+    <t>.loc[]</t>
+  </si>
+  <si>
+    <t>df%&gt;%select(A,B)</t>
+  </si>
+  <si>
+    <t>Select columns or rows</t>
+  </si>
+  <si>
+    <t>Conditional subsetting</t>
+  </si>
+  <si>
+    <t>df[df.A ==3]</t>
+  </si>
+  <si>
+    <t>df[df$A == 3]</t>
+  </si>
+  <si>
+    <t>df.loc[1:6,['A','B']]</t>
+  </si>
+  <si>
+    <t>range()</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>range(3)</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>Creates a list of numbers starting at 0, of length n (where n is the number entered into range())</t>
+  </si>
+  <si>
+    <t>random.choice()</t>
+  </si>
+  <si>
+    <t>sample()</t>
+  </si>
+  <si>
+    <t>"".join([random.choice(string.ascii_letters) for i in range(10)])</t>
+  </si>
+  <si>
+    <t>paste0(sample(letters,size=10,replace=TRUE),collapse ="")</t>
+  </si>
+  <si>
+    <t>Returns a randomly selected element from the specified sequence</t>
+  </si>
+  <si>
+    <t>info(</t>
+  </si>
+  <si>
+    <t>str()</t>
+  </si>
+  <si>
+    <t>Lists info about the data frame (dim, column names, data types)</t>
+  </si>
+  <si>
+    <t>df.info()</t>
+  </si>
+  <si>
+    <t>str(df)</t>
+  </si>
+  <si>
+    <t>rnorm()</t>
+  </si>
+  <si>
+    <t>np.random.normal()</t>
+  </si>
+  <si>
+    <t>import numpy as np
+np.random.normal(0,1,9)</t>
+  </si>
+  <si>
+    <t>Creates a random data set</t>
+  </si>
+  <si>
+    <t>rnorm(9,0,1)</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/conormm/fd8b1980c28dd21cfaf6975c86c74d07</t>
+  </si>
+  <si>
+    <t>df.groupby()</t>
+  </si>
+  <si>
+    <t>group_by()</t>
+  </si>
+  <si>
+    <t>Groups by column</t>
+  </si>
+  <si>
+    <t>df.groupby(['group1', 'group2'])['var1].agg(['mean', 'sum', 'count']) # for count also consider 'size'. size will return n for NaN values also, whereas 'count' will not.</t>
+  </si>
+  <si>
+    <t>df %&gt;% 
+  group_by(group1, group2) %&gt;% 
+  summarise(mean_var1 = mean(var1), 
+            sum_var1 = sum(var1), 
+            count_var1 = n())</t>
+  </si>
+  <si>
+    <t>df.apply(lambda x: len(set(x)))</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1407,6 +1625,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1437,10 +1669,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1489,8 +1722,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1803,11 +2041,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8541939-4269-4785-86B7-DF740396185C}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2087,7 +2325,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="180">
+    <row r="17" spans="1:6" ht="180">
       <c r="A17" s="5" t="s">
         <v>108</v>
       </c>
@@ -2104,7 +2342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="5" t="s">
         <v>129</v>
       </c>
@@ -2119,6 +2357,196 @@
       </c>
       <c r="E18" s="6" t="s">
         <v>130</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45">
+      <c r="A26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="90">
+      <c r="A29" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2129,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33A4E3A-9553-41D0-823D-9474079AB029}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A20" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2200,8 +2628,27 @@
         <v>81</v>
       </c>
     </row>
+    <row r="13" spans="1:1" ht="30">
+      <c r="A13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30">
+      <c r="A14" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" display="https://towardsdatascience.com/cheat-sheet-for-python-dataframe-r-dataframe-syntax-conversions-450f656b44ca" xr:uid="{CAB87A6E-AF7C-46F3-81D4-74AE3C27BE3A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2210,7 +2657,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K20:K21"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2486,4 +2933,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69463DD8-74FC-41EB-969F-F2F08F4C98C9}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="18" customFormat="1">
+      <c r="A1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA66E65-0392-4E23-93F4-517FB30C9E5B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python_Notes_211130.xlsx
+++ b/Python_Notes_211130.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrblock-my.sharepoint.com/personal/jessica_bohning_hrblock_com/Documents/Desktop/Desktop_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E2C8009-0947-429F-8771-1DD008C3316F}"/>
+  <xr:revisionPtr revIDLastSave="425" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFB2FE6-4C9B-4E15-B86B-8ED20A069033}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3BC65D4-A1B2-4C17-818D-AB56E2F2C69D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="312">
   <si>
     <t>R Equivalent</t>
   </si>
@@ -1554,12 +1554,1533 @@
   <si>
     <t>df.apply(lambda x: len(set(x)))</t>
   </si>
+  <si>
+    <t>dtypes</t>
+  </si>
+  <si>
+    <t>Gives columns types for a pandas data frame</t>
+  </si>
+  <si>
+    <t>temp = pd.DataFrame(dat.dtypes)
+temp.columns = ["data_type"]
+temp.groupby("data_type")["data_type"].agg("count")</t>
+  </si>
+  <si>
+    <t># You need to use .copy() if you want to create a new version of a data frame</t>
+  </si>
+  <si>
+    <t># without .copy(), the replace() function alters both the new table and the old table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'''Assignment statements in Python do not copy objects, they create bindings between a target and an object. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For collections that are mutable or contain mutable items, a copy is sometimes needed so one can change one copy </t>
+  </si>
+  <si>
+    <t>without changing the other. This module provides generic shallow and deep copy operations (explained below).</t>
+  </si>
+  <si>
+    <t>'''</t>
+  </si>
+  <si>
+    <r>
+      <t>df = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>DataFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Product'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Computer'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Printer'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Monitor'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Desk'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Phone'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Tablet'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Scanner'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>],</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Price'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>900</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>300</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>450</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>250</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]})</t>
+    </r>
+  </si>
+  <si>
+    <t>df_re = df</t>
+  </si>
+  <si>
+    <r>
+      <t>df_re[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Product"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>] = df_re[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Product"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>].</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"P|M"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>"8"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>regex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD55FDE"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>True</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <r>
+      <t>df_re = df.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>copy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>USING .copy()</t>
+  </si>
+  <si>
+    <t>You need to use .copy() when you assign a data frame to a new name. More info can be found:
+https://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html
+https://pandas.pydata.org/pandas-docs/stable/user_guide/indexing.html#indexing-view-versus-copy</t>
+  </si>
+  <si>
+    <t>corr()</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>df.corr()</t>
+  </si>
+  <si>
+    <t>corr(df)</t>
+  </si>
+  <si>
+    <t>ifelse</t>
+  </si>
+  <si>
+    <t>np.where</t>
+  </si>
+  <si>
+    <t>df.assign(col4 = np.where(df['col1'].isin([1,0]), "One or Zero", "Other"))</t>
+  </si>
+  <si>
+    <t>df %&gt;% mutate(col4 = ifelse(col1 %in% c(1,0), "One or Zero", "Other"))</t>
+  </si>
+  <si>
+    <t>gsub</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>If else single line statement</t>
+  </si>
+  <si>
+    <t>gsub(pattern = "A", replacement = "B", c( "A1","A2"))</t>
+  </si>
+  <si>
+    <t>String replacement for list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import re
+re.sub("A", "B", "A1")
+[re.sub("A", "B", x) for x in ["A1", "A2"]]
+</t>
+  </si>
+  <si>
+    <t>pd.DataFrame({'col1':["A1", "A2"]}).replace("A", "B", regex=True)</t>
+  </si>
+  <si>
+    <t>replace</t>
+  </si>
+  <si>
+    <t># Case when style column creation using np.select</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">numpy </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD55FDE"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>np</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df = pd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>DataFrame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>({</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>: np.random.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)}).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>assign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">col2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD55FDE"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">lambda </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">x: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>*x.col1 + np.random.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>normal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>conditions = [(df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>] &lt; -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              (df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              (df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>] &lt; -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>)]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>choices = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Large Negative'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Large Positve'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Extra Large Negative'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'pred'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>] = np.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(conditions, choices)</t>
+    </r>
+  </si>
+  <si>
+    <t># Note how the "Extra Large Negative" never appears in "pred". That is because they are already covered by "Large Negative" condition</t>
+  </si>
+  <si>
+    <t># If we move that condition to the end, we will see a mix of "Large" and "Extra Large" Values</t>
+  </si>
+  <si>
+    <r>
+      <t>conditions = [(df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">] &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              (df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>] &lt; -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">              (df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'col1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>] &lt; -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>),]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>choices = [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Large Positve'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Extra Large Negative'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'Large Negative'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF89CA78"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>'pred_v2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>] = np.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF61AFEF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>select</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFBBBBBB"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(conditions, choices)</t>
+    </r>
+  </si>
+  <si>
+    <t>Replacement for case_when()</t>
+  </si>
+  <si>
+    <t>Repeat same value</t>
+  </si>
+  <si>
+    <t>[1]*n</t>
+  </si>
+  <si>
+    <t>sample(1,n)</t>
+  </si>
+  <si>
+    <t>sample(1,n,replace=TRUE)</t>
+  </si>
+  <si>
+    <t>as.character()</t>
+  </si>
+  <si>
+    <t>astype(str)</t>
+  </si>
+  <si>
+    <t>Converts column to string type</t>
+  </si>
+  <si>
+    <t>df['A'].astype(str)</t>
+  </si>
+  <si>
+    <t>as.character(df$A)</t>
+  </si>
+  <si>
+    <t>trimws()</t>
+  </si>
+  <si>
+    <t>.str.strip()</t>
+  </si>
+  <si>
+    <t>Trims leading and trailing whitespace</t>
+  </si>
+  <si>
+    <t>df.A.str.strip()</t>
+  </si>
+  <si>
+    <t>trimws(df$A)</t>
+  </si>
+  <si>
+    <t>Creates categorical column</t>
+  </si>
+  <si>
+    <t>dtype = "category"</t>
+  </si>
+  <si>
+    <t>factor</t>
+  </si>
+  <si>
+    <t>factor(df$col1)
+str(df$col1)
+?</t>
+  </si>
+  <si>
+    <t>pd.to_datetime</t>
+  </si>
+  <si>
+    <t>Converts strings to dates</t>
+  </si>
+  <si>
+    <t>pd.to_datetime("2022-12-08")</t>
+  </si>
+  <si>
+    <t>as.Date</t>
+  </si>
+  <si>
+    <t>as.Date("2022-12-08", format = "%Y-%m-%d")</t>
+  </si>
+  <si>
+    <t>.dtypes</t>
+  </si>
+  <si>
+    <t>sapply(df, class)</t>
+  </si>
+  <si>
+    <t>Gets class of each column</t>
+  </si>
+  <si>
+    <t>df.dtypes</t>
+  </si>
+  <si>
+    <t>lower, upper</t>
+  </si>
+  <si>
+    <t>tolower, toupper</t>
+  </si>
+  <si>
+    <t>Converts strings to upper and lowercase</t>
+  </si>
+  <si>
+    <t>string.upper</t>
+  </si>
+  <si>
+    <t>toupper(string)</t>
+  </si>
+  <si>
+    <t>tips.smoker = [i.upper() for i in tips.smoker]]</t>
+  </si>
+  <si>
+    <t>factor(df$col1)</t>
+  </si>
+  <si>
+    <t>astype('category')</t>
+  </si>
+  <si>
+    <t>df = pd.DataFrame({'col1': pd.Series(['F', 'M', 'F', 'M', 'M'], dtype = "category"), 'col2': np.random.normal(0, 1, 5)})
+df['col1'].cat.categories
+df['col1'].cat.codes
+# Reorder categorical levels
+df['column_name'].cat.reorder_categories(['low', 'high'], ordered=True)</t>
+  </si>
+  <si>
+    <t>pd.to_datetime("2022-12-08", format = '%Y-%m-%d'))</t>
+  </si>
+  <si>
+    <t>is.na()</t>
+  </si>
+  <si>
+    <t>Checks for Nas</t>
+  </si>
+  <si>
+    <t>pd.isnull()</t>
+  </si>
+  <si>
+    <t>pd.isnull([5,np.NaN])</t>
+  </si>
+  <si>
+    <t>is.na(c(5,NA))</t>
+  </si>
+  <si>
+    <t>np.NaN, np.NAN, np.nan</t>
+  </si>
+  <si>
+    <t>NA values</t>
+  </si>
+  <si>
+    <t>pd.notnull</t>
+  </si>
+  <si>
+    <t>!is.na()</t>
+  </si>
+  <si>
+    <t>Check for nonmissing values</t>
+  </si>
+  <si>
+    <t>pd.notnull([5,np.NaN])</t>
+  </si>
+  <si>
+    <t>!is.na(c(5,NA))</t>
+  </si>
+  <si>
+    <t>.fillna()</t>
+  </si>
+  <si>
+    <t>Fills Nas with whatever you input</t>
+  </si>
+  <si>
+    <t>df.col1.fillna(0)</t>
+  </si>
+  <si>
+    <t>gsub(pattern = NA, replace = 0, df$col1)</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>Apply function to rows or columns</t>
+  </si>
+  <si>
+    <t>df.apply(np.mean, axis= 0)</t>
+  </si>
+  <si>
+    <t>apply(df, 2, mean)</t>
+  </si>
+  <si>
+    <t>Reshapes data frame</t>
+  </si>
+  <si>
+    <t>melt(df, id_vars = 'name')</t>
+  </si>
+  <si>
+    <t>pd.melt(df, id_vars = 'name')</t>
+  </si>
+  <si>
+    <t>pd.pivot_table</t>
+  </si>
+  <si>
+    <t>Unmelts melted data frame</t>
+  </si>
+  <si>
+    <t>df.groupby('name')['value'].mean()</t>
+  </si>
+  <si>
+    <t>Group by and get mean</t>
+  </si>
+  <si>
+    <t>pd.melt()</t>
+  </si>
+  <si>
+    <t>melt()</t>
+  </si>
+  <si>
+    <t>pd.pivot_table(df_melt, index = 'name', columns = 'variable', values ='value').reset_index()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1639,8 +3160,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBBBBBB"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF5C6370"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF89CA78"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF61AFEF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFD19A66"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFD55FDE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1659,6 +3218,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF282C34"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1673,7 +3238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1725,6 +3290,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2041,20 +3624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8541939-4269-4785-86B7-DF740396185C}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="57.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34" style="6" customWidth="1"/>
     <col min="6" max="6" width="41" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
@@ -2175,7 +3756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -2325,7 +3906,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="180">
+    <row r="17" spans="1:6" ht="165">
       <c r="A17" s="5" t="s">
         <v>108</v>
       </c>
@@ -2362,191 +3943,521 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30">
+      <c r="A20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="45">
-      <c r="A26" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30">
       <c r="A27" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30">
       <c r="A28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="90">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:6" ht="90">
+      <c r="A30" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="60">
+      <c r="A31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="75">
+      <c r="A34" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="45">
+      <c r="A35" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="150">
+      <c r="A39" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30">
+      <c r="A47" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="45">
+      <c r="A49" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2557,10 +4468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33A4E3A-9553-41D0-823D-9474079AB029}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A19:A20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2639,25 +4550,31 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="19" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="45">
+      <c r="A17" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" display="https://towardsdatascience.com/cheat-sheet-for-python-dataframe-r-dataframe-syntax-conversions-450f656b44ca" xr:uid="{CAB87A6E-AF7C-46F3-81D4-74AE3C27BE3A}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{013DF9A5-0EB5-44EF-A9B5-F818AE6951F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF93A8-FA57-49FF-A090-343B53F5C3A6}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2666,148 +4583,250 @@
     <col min="2" max="2" width="3.7109375" style="17" customWidth="1"/>
     <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="3.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" customWidth="1"/>
+    <col min="7" max="7" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75">
+      <c r="E1" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75">
       <c r="A2" s="16"/>
       <c r="C2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="10"/>
       <c r="C4" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="10"/>
       <c r="C7" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="13" t="s">
         <v>86</v>
       </c>
       <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75">
+      <c r="E14" s="21"/>
+      <c r="G14" s="24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75">
       <c r="A15" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="10"/>
       <c r="C17" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" s="24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="12" t="s">
         <v>96</v>
       </c>
@@ -2815,7 +4834,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
         <v>88</v>
       </c>
@@ -2823,7 +4842,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -2831,13 +4850,13 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:7">
       <c r="A23" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:7">
       <c r="A24" s="14" t="s">
         <v>91</v>
       </c>
@@ -2845,13 +4864,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:7">
       <c r="A25" s="10"/>
       <c r="C25" s="12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
@@ -2859,7 +4878,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:7">
       <c r="A27" s="15" t="s">
         <v>97</v>
       </c>
@@ -2867,23 +4886,23 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:7">
       <c r="A28" s="10"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:7">
       <c r="A29" s="10"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:7">
       <c r="A31" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:7">
       <c r="A32" s="12" t="s">
         <v>100</v>
       </c>

--- a/Python_Notes_211130.xlsx
+++ b/Python_Notes_211130.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrblock-my.sharepoint.com/personal/jessica_bohning_hrblock_com/Documents/Desktop/Desktop_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="425" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFB2FE6-4C9B-4E15-B86B-8ED20A069033}"/>
+  <xr:revisionPtr revIDLastSave="547" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D32C9E0-BFD6-4E2F-9AC6-BAE6F25BBDB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D3BC65D4-A1B2-4C17-818D-AB56E2F2C69D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3BC65D4-A1B2-4C17-818D-AB56E2F2C69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
     <sheet name="Examples" sheetId="4" r:id="rId3"/>
-    <sheet name="git" sheetId="5" r:id="rId4"/>
-    <sheet name="md" sheetId="6" r:id="rId5"/>
+    <sheet name="classes" sheetId="8" r:id="rId4"/>
+    <sheet name="git" sheetId="5" r:id="rId5"/>
+    <sheet name="md" sheetId="6" r:id="rId6"/>
+    <sheet name="onenote_backup" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="479">
   <si>
     <t>R Equivalent</t>
   </si>
@@ -3075,12 +3077,3652 @@
   <si>
     <t>pd.pivot_table(df_melt, index = 'name', columns = 'variable', values ='value').reset_index()</t>
   </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>Switches to master branch</t>
+  </si>
+  <si>
+    <t>git stash</t>
+  </si>
+  <si>
+    <t>Stashing takes the dirty state of your working directory — that is, your modified tracked files and staged changes — and saves it on a stack of unfinished changes that you can reapply at any time (even on a different branch).</t>
+  </si>
+  <si>
+    <t>def dcm_group_assignment(data):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if data.email_dcm_client == 0:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val = 'Converted Day 1'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  elif data.holdout == 'H':</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val = 'Email Holdout'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  elif data.split_column == "O":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val = "Coupon Test Group"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  elif data.split_column == "NO":</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val = "Coupon Control Group"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  elif (data.holdout == None) &amp; (data.path == None) &amp; (data.mlm_segment == None) &amp; (data.email_dcm_client == 1):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val = "Conventional Email Path"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  else:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    val = "Other"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return val</t>
+  </si>
+  <si>
+    <t>df_dcm_summary['group_assignment'] = df_dcm_summary.apply(dcm_group_assignment, axis = 1)</t>
+  </si>
+  <si>
+    <t>df_dcm_summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try2['group_name'] = np.where(df_dcm_summary.email_dcm_client == 0, 'Converted Day 1', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         np.where(df_dcm_summary.holdout == 'H', 'Email Holdout',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  np.where(df_dcm_summary.split_column == "O", "Coupon Test Group",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           np.where(df_dcm_summary.split_column == "NO", "Coupon Control Group",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    np.where((df_dcm_summary.holdout == "None") &amp; (df_dcm_summary.path == "None") &amp; (df_dcm_summary.mlm_segment == "None") &amp; (df_dcm_summary.email_dcm_client == 1), "Conventional Email Path",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  'Other'))))).tolist()</t>
+  </si>
+  <si>
+    <t>Function + apply() to replace case_when()</t>
+  </si>
+  <si>
+    <t>NESTED WHERE CLAUSE to replace case_when()</t>
+  </si>
+  <si>
+    <t>git reset</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>Reverts all local uncommitted changes (should be executed in repo root)</t>
+  </si>
+  <si>
+    <t>Unstages all files stages with git add</t>
+  </si>
+  <si>
+    <t>setwd()</t>
+  </si>
+  <si>
+    <t>Sets current directory</t>
+  </si>
+  <si>
+    <t>os.chdir()</t>
+  </si>
+  <si>
+    <t>.describe()</t>
+  </si>
+  <si>
+    <t>Describes the data/summarizes it</t>
+  </si>
+  <si>
+    <t>df.describe()</t>
+  </si>
+  <si>
+    <t>f strings are good to use when you need to insert a variable into the string. They format nicely and run faster
+Example: 
+  name = 'Jessica'
+  print(f'Hello, {name}!')
+https://www.shecancode.io/blog/introduction-to-f-strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To start virtual environment: </t>
+  </si>
+  <si>
+    <t>conda activate ita</t>
+  </si>
+  <si>
+    <t>conda env list</t>
+  </si>
+  <si>
+    <t>If using bash terminal:</t>
+  </si>
+  <si>
+    <t>List virtual environments:</t>
+  </si>
+  <si>
+    <t>Use virtual environments:</t>
+  </si>
+  <si>
+    <t>git@ssh.dev.azure.com:v3/hrblock/PRIVATE-Data%20Science%20And%20Analytics/ml_itagiTo pull master branch to pycharm:</t>
+  </si>
+  <si>
+    <t>After pulling master, rerun the package build file: packages/ita/build_package.sh</t>
+  </si>
+  <si>
+    <t>Run this in the ita package and the RRA assistant</t>
+  </si>
+  <si>
+    <t>cd..</t>
+  </si>
+  <si>
+    <t>cd returnassistant</t>
+  </si>
+  <si>
+    <t>build_package.sh</t>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+  </si>
+  <si>
+    <t>Make sure you disconnect from VPN or netskope</t>
+  </si>
+  <si>
+    <t>To switch branches:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> git checkout &lt;existing_branch&gt;</t>
+  </si>
+  <si>
+    <t>If branch already exits</t>
+  </si>
+  <si>
+    <t>git checkout -b &lt;new_branch&gt;</t>
+  </si>
+  <si>
+    <t>If the branch doesn't already exist, copy it from master</t>
+  </si>
+  <si>
+    <t>git push -u origin &lt;new_branch&gt;</t>
+  </si>
+  <si>
+    <t>On the first push you will need to include this</t>
+  </si>
+  <si>
+    <t>git branch -d &lt;branch-name&gt;</t>
+  </si>
+  <si>
+    <t>Deletes branch</t>
+  </si>
+  <si>
+    <t>To see branches:</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>To install a new package into pycharm:</t>
+  </si>
+  <si>
+    <t>pip --cert C:\Users\a982526\JB_Apps\certificates\hrblock_root_certificate.cer install flatten_dict</t>
+  </si>
+  <si>
+    <t>Replace "flatten_dict" with the package name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pip install -r requirements.txt </t>
+  </si>
+  <si>
+    <t>(if in packages/ita, run this to make sure everything is there)</t>
+  </si>
+  <si>
+    <t>To go back a directory: cd..</t>
+  </si>
+  <si>
+    <t>To discard all uncommitted git changes:</t>
+  </si>
+  <si>
+    <t>git reset --hard</t>
+  </si>
+  <si>
+    <t>git clean -fxd</t>
+  </si>
+  <si>
+    <t>Git commit options:</t>
+  </si>
+  <si>
+    <t>git commit -m "COMMITT MESSAGE"</t>
+  </si>
+  <si>
+    <t>git commit -am "COMMITT MESSAGE"</t>
+  </si>
+  <si>
+    <t>Git push</t>
+  </si>
+  <si>
+    <t>git push</t>
+  </si>
+  <si>
+    <t>Get new repo in Pycharm:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Navigate in bash to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/c/Users/a982526/PycharmProjectsgit </t>
+    </r>
+  </si>
+  <si>
+    <t>git clone www.reponame.com</t>
+  </si>
+  <si>
+    <t>Create a file called ".gitignore" to make commits easier. This file will capture some of the files that you need in python, but not git. So far, this is what is in that file:</t>
+  </si>
+  <si>
+    <t>.idea/</t>
+  </si>
+  <si>
+    <t>To see an overview of non-commited changes:</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>Count the number of files in a directory:</t>
+  </si>
+  <si>
+    <t>%sh</t>
+  </si>
+  <si>
+    <t>cd /dbfs/mnt/dsa/ml_ita/ita_production/data/competitive-returns/tt</t>
+  </si>
+  <si>
+    <t>ls | wc -l</t>
+  </si>
+  <si>
+    <t>See the start of a file:</t>
+  </si>
+  <si>
+    <t>cat /dbfs/FileStore/ml_ita_databricks/init_scripts/latex.sh</t>
+  </si>
+  <si>
+    <t>Quick bash:</t>
+  </si>
+  <si>
+    <t>ls -d abc*   # list all files starting with abc---</t>
+  </si>
+  <si>
+    <t>ls -d *abc*  # list all files containing --abc--</t>
+  </si>
+  <si>
+    <t>ls -d *abc   # list all files ending with --abc</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single vs double quotes. We can use triple quotes (i.e., triplet of single quotes or triplet double quotes) to represent the strings containing both single and double quotes to eliminate the need of escaping any. It also lets you write over multiple lines. </t>
+  </si>
+  <si>
+    <t>df.value_counts()</t>
+  </si>
+  <si>
+    <t>Gets the number of times each value appears in the data</t>
+  </si>
+  <si>
+    <t>dir()</t>
+  </si>
+  <si>
+    <t>Lists all the attributes and methods</t>
+  </si>
+  <si>
+    <t>a = np.array([1,2,3,4])
+dir(a)</t>
+  </si>
+  <si>
+    <t>help()</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Gives the documention on the function</t>
+  </si>
+  <si>
+    <t>help(mean)</t>
+  </si>
+  <si>
+    <t>?mean</t>
+  </si>
+  <si>
+    <t>Best practices for OOP:
+* Initialize attributes in __init__()
+* Use CamelCase for classes
+* Use lower_snake_case for funtions and attributes</t>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_POSITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00C53B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t># Add a move() method with steps parameter</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_POSITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>steps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>else</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_POSITION</t>
+    </r>
+  </si>
+  <si>
+    <t>       </t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00C53B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t># This method provides a rudimentary visualization in the console    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drawing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"|"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_POSITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>drawing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>();</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>draw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <t>Class attributes store data that is shared among all the class instances. They are assigned values in the class body, and are referred to using the ClassName. syntax rather than self. syntax when used in methods.
+In this exercise, you will be a game developer working on a game that will have several players moving on a grid and interacting with each other. As the first step, you want to define a Player class that will just move along a straight line. Player will have a position attribute and a move() method. The grid is limited, so the position of Player will have a maximal value.</t>
+  </si>
+  <si>
+    <t># Create Players p1 and p2</t>
+  </si>
+  <si>
+    <r>
+      <t>p1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MAX_SPEED of p1 and p2 before assignment:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># Print p1.MAX_SPEED and p2.MAX_SPEED</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>p1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_SPEED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>p2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_SPEED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># Assign 7 to p1.MAX_SPEED</t>
+  </si>
+  <si>
+    <r>
+      <t>p1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_SPEED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MAX_SPEED of p1 and p2 after assignment:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MAX_SPEED of Player:"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t># Print Player.MAX_SPEED</t>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_SPEED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>TEST CODE in Console</t>
+  </si>
+  <si>
+    <r>
+      <t>Player</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_SPEED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t># If you change Player.MAX_SPEED, how does it impact p1 and p2?</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>MAX_SPEED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>Python allows you to define class methods as well, using the @classmethod decorator and a special first argument cls. The main use of class methods is defining methods that return an instance of the class, but aren't using the same code as __init__().
+For example, you are developing a time series package and want to define your own class for working with dates, BetterDate. The attributes of the class will be year, month, and day. You want to have a constructor that creates BetterDate objects given the values for year, month, and day, but you also want to be able to create BetterDate objects from strings like 2020-04-30.</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>__init__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>@classmethod</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>BetterDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>'2020-04-30'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>bd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>bd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>print</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>bd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>datestr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>datestr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDC4D8B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"-"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>      </t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00C53B"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t># Define a class method from_datetime accepting a datetime object</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_datetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dateobj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dateobj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dateobj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>dateobj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>cls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>year</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t># import datetime from datetime</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>datetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009BD8"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>datetime</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>BetterDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>datetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>     </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>bd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>BetterDate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>from_datetime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>today</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFDCDCDC"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>   </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3198,8 +6840,70 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFD8D8D8"/>
+      <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF009BD8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDCDCDC"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFDC4D8B"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00C53B"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF569CD6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3224,6 +6928,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3238,7 +6960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3307,6 +7029,63 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3624,11 +7403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8541939-4269-4785-86B7-DF740396185C}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4281,9 +8060,6 @@
       <c r="A39" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>261</v>
-      </c>
       <c r="C39" s="6" t="s">
         <v>259</v>
       </c>
@@ -4441,7 +8217,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45">
+    <row r="49" spans="1:5" ht="45">
       <c r="A49" s="5" t="s">
         <v>305</v>
       </c>
@@ -4452,12 +8228,73 @@
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
         <v>307</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30">
+      <c r="A54" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4468,10 +8305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33A4E3A-9553-41D0-823D-9474079AB029}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4557,6 +8394,21 @@
     <row r="17" spans="1:1" ht="45">
       <c r="A17" s="1" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="75">
+      <c r="A18" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30">
+      <c r="A19" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="60">
+      <c r="A20" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -4571,10 +8423,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EF93A8-FA57-49FF-A090-343B53F5C3A6}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4815,7 +8667,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="18.75">
       <c r="A19" s="13" t="s">
         <v>95</v>
       </c>
@@ -4824,6 +8676,9 @@
       </c>
       <c r="E19" s="24" t="s">
         <v>209</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4833,6 +8688,9 @@
       <c r="C20" s="13" t="s">
         <v>114</v>
       </c>
+      <c r="G20" s="26" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
@@ -4841,6 +8699,9 @@
       <c r="C21" s="12" t="s">
         <v>123</v>
       </c>
+      <c r="G21" s="26" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
@@ -4849,12 +8710,18 @@
       <c r="C22" s="15" t="s">
         <v>116</v>
       </c>
+      <c r="G22" s="26" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C23" s="10"/>
+      <c r="G23" s="26" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="14" t="s">
@@ -4862,6 +8729,9 @@
       </c>
       <c r="C24" s="11" t="s">
         <v>124</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4869,6 +8739,9 @@
       <c r="C25" s="12" t="s">
         <v>112</v>
       </c>
+      <c r="G25" s="26" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="11" t="s">
@@ -4877,6 +8750,9 @@
       <c r="C26" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="G26" s="26" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="15" t="s">
@@ -4885,67 +8761,124 @@
       <c r="C27" s="15" t="s">
         <v>116</v>
       </c>
+      <c r="G27" s="26" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="10"/>
+      <c r="G28" s="26" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="10"/>
+      <c r="G29" s="26" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="11" t="s">
         <v>98</v>
       </c>
+      <c r="G30" s="26" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="13" t="s">
         <v>99</v>
       </c>
+      <c r="G31" s="26" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="G32" s="26" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="G33" s="26" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="G35" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="10"/>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="G36" s="26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:7">
       <c r="A38" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:7" ht="18.75">
       <c r="A39" s="10"/>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="G39" s="16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="G40" s="27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="15" t="s">
         <v>106</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="G42" s="27" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="G43" s="27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="G44" s="27" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="G45" s="27" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4955,12 +8888,367 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B152E074-8AA1-452C-AA81-1A5969A836CA}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="134.28515625" customWidth="1"/>
+    <col min="3" max="3" width="101.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90">
+      <c r="A1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1">
+      <c r="C2" s="46"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="41" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="42"/>
+      <c r="C9" s="43" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="41" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="41" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="41" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="42"/>
+      <c r="C17" s="43" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
+      <c r="A22" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75">
+      <c r="A23" s="41"/>
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75">
+      <c r="A24" s="41"/>
+      <c r="C24" s="40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="45" customFormat="1" ht="15.75">
+      <c r="C25" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="45" customFormat="1" ht="15.75">
+      <c r="C26" s="40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="90">
+      <c r="A27" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75">
+      <c r="A28" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75">
+      <c r="A29" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75">
+      <c r="A30" s="42"/>
+      <c r="C30" s="40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75">
+      <c r="A31" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75">
+      <c r="A32" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75">
+      <c r="A33" s="41" t="s">
+        <v>460</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75">
+      <c r="A34" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="1:3" ht="15.75">
+      <c r="A35" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75">
+      <c r="A36" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="C36" s="44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75">
+      <c r="A37" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75">
+      <c r="A38" s="41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75">
+      <c r="A39" s="41" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75">
+      <c r="A40" s="41" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75">
+      <c r="A41" s="41" t="s">
+        <v>461</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75">
+      <c r="A42" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75">
+      <c r="A43" s="41" t="s">
+        <v>472</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75">
+      <c r="A44" s="41" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75">
+      <c r="C45" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75">
+      <c r="C46" s="43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75">
+      <c r="C47" s="40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75">
+      <c r="C48" s="40" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" ht="15.75">
+      <c r="C49" s="40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69463DD8-74FC-41EB-969F-F2F08F4C98C9}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5009,13 +9297,45 @@
         <v>145</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA66E65-0392-4E23-93F4-517FB30C9E5B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5025,4 +9345,343 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB70D9-DE8A-4885-81C9-BEE359BE53B1}">
+  <dimension ref="A1:A67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="183.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="30" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="30" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="29" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="31" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="29" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="32" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="28" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="31" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="30" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="30" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="29" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="29" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="28" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="30" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="34"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="35"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="36"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="30" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="34"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="34"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="34"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="39" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="36"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="30" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="30" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="34"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="35"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A46" r:id="rId1" display="http://www.reponame.com/" xr:uid="{CCAC9F30-372A-4780-9D8A-BF2A30B732EF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Python_Notes_211130.xlsx
+++ b/Python_Notes_211130.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hrblock-my.sharepoint.com/personal/jessica_bohning_hrblock_com/Documents/Desktop/Desktop_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D32C9E0-BFD6-4E2F-9AC6-BAE6F25BBDB5}"/>
+  <xr:revisionPtr revIDLastSave="582" documentId="8_{31054F7B-2C11-4AAC-AA7B-5A472C8250A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9109F1-075D-4F1B-9332-1A60586C0645}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D3BC65D4-A1B2-4C17-818D-AB56E2F2C69D}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="Functions" sheetId="1" r:id="rId1"/>
     <sheet name="Notes" sheetId="2" r:id="rId2"/>
     <sheet name="Examples" sheetId="4" r:id="rId3"/>
-    <sheet name="classes" sheetId="8" r:id="rId4"/>
-    <sheet name="git" sheetId="5" r:id="rId5"/>
-    <sheet name="md" sheetId="6" r:id="rId6"/>
-    <sheet name="onenote_backup" sheetId="7" r:id="rId7"/>
+    <sheet name="Quick Examples" sheetId="9" r:id="rId4"/>
+    <sheet name="classes" sheetId="8" r:id="rId5"/>
+    <sheet name="git" sheetId="5" r:id="rId6"/>
+    <sheet name="md" sheetId="6" r:id="rId7"/>
+    <sheet name="onenote_backup" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="485">
   <si>
     <t>R Equivalent</t>
   </si>
@@ -6716,6 +6717,25 @@
       </rPr>
       <t>   </t>
     </r>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Replace NULLS, NaNs, Nones</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>This code replaces any null type value with the value '0'</t>
+  </si>
+  <si>
+    <t>df = pd.DataFrame({'col1':["a", "b", None, np.NaN, 'c']})
+df.loc[df['col1'] != df['col1'], 'col1'] = '0'</t>
   </si>
 </sst>
 </file>
@@ -8888,10 +8908,54 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E37B094-83BC-44EB-AFAB-DC5C63E96BD7}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="55" style="7" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B152E074-8AA1-452C-AA81-1A5969A836CA}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
@@ -9242,7 +9306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69463DD8-74FC-41EB-969F-F2F08F4C98C9}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -9335,7 +9399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA66E65-0392-4E23-93F4-517FB30C9E5B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -9347,7 +9411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BB70D9-DE8A-4885-81C9-BEE359BE53B1}">
   <dimension ref="A1:A67"/>
   <sheetViews>
